--- a/data-raw/drugDefaults_global.xlsx
+++ b/data-raw/drugDefaults_global.xlsx
@@ -1,47 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\StanpumpR\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb8c4cdaff1cb2e3/Documents/stanpumpR/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202D951A-E261-44FC-8F6E-017FE888806C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B4A7B5-6ECB-4F90-BF5B-112958DF0EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{F1EDE105-E79D-43EB-8BB3-A0EECCFD5A7A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="75">
+  <si>
+    <t>Drug</t>
+  </si>
+  <si>
+    <t>Concentration.Units</t>
+  </si>
+  <si>
+    <t>Bolus.Units</t>
+  </si>
+  <si>
+    <t>Infusion.Units</t>
+  </si>
+  <si>
+    <t>Default.Units</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Typical</t>
+  </si>
+  <si>
+    <t>MEAC</t>
+  </si>
+  <si>
+    <t>endCe</t>
+  </si>
+  <si>
+    <t>endCeText</t>
+  </si>
   <si>
     <t>propofol</t>
   </si>
   <si>
+    <t>mcg</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>mcg/kg/min</t>
+  </si>
+  <si>
+    <t>mg,mg/kg,mcg/kg/min,mg/kg/hr</t>
+  </si>
+  <si>
+    <t>#FFCC00</t>
+  </si>
+  <si>
+    <t>emergence</t>
+  </si>
+  <si>
     <t>remifentanil</t>
   </si>
   <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>mcg,mcg/kg,mcg/kg/min</t>
+  </si>
+  <si>
+    <t>#0000C0</t>
+  </si>
+  <si>
+    <t>ventilation</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
+    <t>mcg/kg/hr</t>
+  </si>
+  <si>
+    <t>mcg,mcg/kg,mcg/kg/hr</t>
+  </si>
+  <si>
+    <t>#0491E2</t>
+  </si>
+  <si>
     <t>alfentanil</t>
   </si>
   <si>
@@ -51,221 +118,146 @@
     <t>morphine</t>
   </si>
   <si>
+    <t>mg/hr</t>
+  </si>
+  <si>
+    <t>mg,mg/hr</t>
+  </si>
+  <si>
+    <t>#032FED</t>
+  </si>
+  <si>
+    <t>pethidine</t>
+  </si>
+  <si>
+    <t>#5155FF</t>
+  </si>
+  <si>
     <t>hydromorphone</t>
   </si>
   <si>
+    <t>mg,mg/kg,mg/hr,mg/kg/hr,mg PO,mg IM,mg IN</t>
+  </si>
+  <si>
     <t>methadone</t>
   </si>
   <si>
+    <t>#71C5E8</t>
+  </si>
+  <si>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>mg,mg/kg,mg/hr,mg/kg/hr</t>
+  </si>
+  <si>
     <t>dexmedetomidine</t>
   </si>
   <si>
+    <t>mcg,mcg/kg,mcg/hr,mcg/kg/hr</t>
+  </si>
+  <si>
+    <t>#791AEE</t>
+  </si>
+  <si>
+    <t>emerence</t>
+  </si>
+  <si>
     <t>midazolam</t>
   </si>
   <si>
+    <t>mg,mg/kg,mg/hr</t>
+  </si>
+  <si>
+    <t>#E36C0A</t>
+  </si>
+  <si>
+    <t>wakefulness</t>
+  </si>
+  <si>
     <t>etomidate</t>
   </si>
   <si>
+    <t>mg/kg/min</t>
+  </si>
+  <si>
+    <t>mg,mg/kg/min</t>
+  </si>
+  <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>Drug</t>
-  </si>
-  <si>
-    <t>Concentration Units</t>
-  </si>
-  <si>
-    <t>ng</t>
-  </si>
-  <si>
-    <t>mg</t>
-  </si>
-  <si>
-    <t>mcg</t>
-  </si>
-  <si>
-    <t>Bolus Units</t>
-  </si>
-  <si>
-    <t>mcg/kg/min</t>
-  </si>
-  <si>
-    <t>mcg/kg/hr</t>
-  </si>
-  <si>
-    <t>mg/hr</t>
-  </si>
-  <si>
-    <t>mg/kg/min</t>
+    <t>#B7AE7F</t>
   </si>
   <si>
     <t>rocuronium</t>
   </si>
   <si>
-    <t>Infusion Units</t>
-  </si>
-  <si>
-    <t>ketamine</t>
+    <t>mg/kg/hr</t>
+  </si>
+  <si>
+    <t>mg,mg/kg/hr</t>
+  </si>
+  <si>
+    <t>#F9423A</t>
+  </si>
+  <si>
+    <t>reversable</t>
   </si>
   <si>
     <t>naloxone</t>
   </si>
   <si>
-    <t>pethidine</t>
-  </si>
-  <si>
-    <t>mg/kg/hr</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>#FFCC00</t>
-  </si>
-  <si>
-    <t>#F9423A</t>
-  </si>
-  <si>
-    <t>#71C5E8</t>
-  </si>
-  <si>
-    <t>#032FED</t>
-  </si>
-  <si>
-    <t>#0491E2</t>
-  </si>
-  <si>
-    <t>#B7AE7F</t>
+    <t>mcg/min</t>
+  </si>
+  <si>
+    <t>mcg,mcg/kg,mg,mg/kg,mcg/min,mcg/kg/min,mg/min,mg/kg/min</t>
   </si>
   <si>
     <t>#404040</t>
   </si>
   <si>
-    <t>#E36C0A</t>
-  </si>
-  <si>
-    <t>#791AEE</t>
-  </si>
-  <si>
-    <t>#0000C0</t>
-  </si>
-  <si>
-    <t>#5155FF</t>
+    <t>no effect</t>
   </si>
   <si>
     <t>oxytocin</t>
   </si>
   <si>
-    <t>mcg/min</t>
+    <t>mcg,mg,mg/kg,mcg/min</t>
   </si>
   <si>
     <t>#008F7D</t>
   </si>
   <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>oxycodone</t>
   </si>
   <si>
-    <t>mg,mg/hr</t>
-  </si>
-  <si>
-    <t>mg,mg/kg/min</t>
-  </si>
-  <si>
-    <t>mg,mg/kg/hr</t>
-  </si>
-  <si>
-    <t>Default Units</t>
-  </si>
-  <si>
-    <t>mcg,mcg/kg,mcg/hr,mcg/kg/hr</t>
-  </si>
-  <si>
-    <t>MEAC</t>
-  </si>
-  <si>
-    <t>Upper</t>
-  </si>
-  <si>
-    <t>Lower</t>
-  </si>
-  <si>
-    <t>Typical</t>
-  </si>
-  <si>
-    <t>mcg,mcg/kg,mcg/kg/min</t>
-  </si>
-  <si>
-    <t>mcg,mcg/kg,mcg/kg/hr</t>
-  </si>
-  <si>
-    <t>mg,mg/kg,mg/hr</t>
-  </si>
-  <si>
-    <t>mg,mg/kg,mcg/kg/min,mg/kg/hr</t>
-  </si>
-  <si>
     <t>mg PO</t>
   </si>
   <si>
-    <t>mg,mg/kg,mg/hr,mg/kg/hr,mg PO,mg IM,mg IN</t>
-  </si>
-  <si>
-    <t>mcg,mcg/kg,mg,mg/kg,mcg/min,mcg/kg/min,mg/min,mg/kg/min</t>
-  </si>
-  <si>
-    <t>endCeText</t>
-  </si>
-  <si>
-    <t>endCe</t>
-  </si>
-  <si>
-    <t>emergence</t>
-  </si>
-  <si>
-    <t>ventilation</t>
-  </si>
-  <si>
-    <t>emerence</t>
-  </si>
-  <si>
-    <t>wakefulness</t>
-  </si>
-  <si>
-    <t>reversable</t>
-  </si>
-  <si>
-    <t>no effect</t>
-  </si>
-  <si>
-    <t>mg,mg/kg,mg/hr,mg/kg/hr</t>
-  </si>
-  <si>
-    <t>mcg,mg,mg/kg,mcg/min</t>
+    <t>oliceridine</t>
+  </si>
+  <si>
+    <t>mg,mcg/kg/min</t>
+  </si>
+  <si>
+    <t>#FF00CC</t>
+  </si>
+  <si>
+    <t>remimazolam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -288,10 +280,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -320,45 +310,41 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -385,32 +371,11 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -437,23 +402,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -465,228 +413,241 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD3CBA1-6D90-4E49-BCBD-CB4D09098359}">
-  <dimension ref="A1:M19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="12.06640625" customWidth="1"/>
-    <col min="2" max="2" width="18.1328125" customWidth="1"/>
-    <col min="3" max="3" width="13.9296875" customWidth="1"/>
-    <col min="4" max="4" width="13.1328125" customWidth="1"/>
-    <col min="5" max="5" width="13.46484375" customWidth="1"/>
-    <col min="6" max="6" width="17.19921875" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" customWidth="1"/>
-    <col min="8" max="8" width="9.06640625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9.06640625" style="2"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
       </c>
       <c r="H2">
         <v>2.5</v>
@@ -704,30 +665,30 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>0.8</v>
@@ -745,30 +706,30 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>0.48</v>
@@ -786,30 +747,30 @@
         <v>0.6</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>31.2</v>
@@ -827,30 +788,30 @@
         <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>4.48E-2</v>
@@ -868,30 +829,30 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="M6" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>6.4000000000000003E-3</v>
@@ -909,30 +870,30 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H8">
         <v>0.2</v>
@@ -950,30 +911,30 @@
         <v>0.25</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>1.2</v>
@@ -991,30 +952,30 @@
         <v>1.5</v>
       </c>
       <c r="M9" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>4.8000000000000001E-2</v>
@@ -1032,30 +993,30 @@
         <v>0.06</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H11">
         <v>0.1</v>
@@ -1073,30 +1034,30 @@
         <v>0.1</v>
       </c>
       <c r="M11" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H12">
         <v>0.4</v>
@@ -1114,30 +1075,30 @@
         <v>0.4</v>
       </c>
       <c r="M12" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H13">
         <v>0.04</v>
@@ -1155,30 +1116,30 @@
         <v>0.04</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H14">
         <v>0.4</v>
@@ -1196,30 +1157,30 @@
         <v>0.4</v>
       </c>
       <c r="M14" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H15">
         <v>0.5</v>
@@ -1237,30 +1198,30 @@
         <v>0.5</v>
       </c>
       <c r="M15" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1278,30 +1239,30 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1319,30 +1280,30 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="H18">
         <v>0.05</v>
@@ -1360,24 +1321,24 @@
         <v>0.05</v>
       </c>
       <c r="M18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>10</v>
@@ -1395,11 +1356,93 @@
         <v>10</v>
       </c>
       <c r="M19" t="s">
-        <v>64</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20">
+        <v>18.295999999999999</v>
+      </c>
+      <c r="I20">
+        <v>37.503999999999998</v>
+      </c>
+      <c r="J20">
+        <v>27.4</v>
+      </c>
+      <c r="K20">
+        <v>27.9</v>
+      </c>
+      <c r="L20">
+        <v>27.4</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21">
+        <v>0.3</v>
+      </c>
+      <c r="I21">
+        <v>0.6</v>
+      </c>
+      <c r="J21">
+        <v>0.2</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0.2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>